--- a/natmiOut/OldD2/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H2">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I2">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J2">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>337.849297458535</v>
+        <v>344.8409766718017</v>
       </c>
       <c r="R2">
-        <v>337.849297458535</v>
+        <v>1379.363906687207</v>
       </c>
       <c r="S2">
-        <v>0.07000970890781402</v>
+        <v>0.06754243808830115</v>
       </c>
       <c r="T2">
-        <v>0.07000970890781402</v>
+        <v>0.05003277635214327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H3">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I3">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J3">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>228.6335317678127</v>
+        <v>248.848499776828</v>
       </c>
       <c r="R3">
-        <v>228.6335317678127</v>
+        <v>1493.090998660968</v>
       </c>
       <c r="S3">
-        <v>0.04737783125801686</v>
+        <v>0.04874082700890759</v>
       </c>
       <c r="T3">
-        <v>0.04737783125801686</v>
+        <v>0.05415792572738579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H4">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I4">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J4">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>172.4876150845626</v>
+        <v>177.1209506835195</v>
       </c>
       <c r="R4">
-        <v>172.4876150845626</v>
+        <v>1062.725704101117</v>
       </c>
       <c r="S4">
-        <v>0.03574317843225762</v>
+        <v>0.03469187728542038</v>
       </c>
       <c r="T4">
-        <v>0.03574317843225762</v>
+        <v>0.0385475632783993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H5">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I5">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J5">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>162.1813574096237</v>
+        <v>166.8617607841392</v>
       </c>
       <c r="R5">
-        <v>162.1813574096237</v>
+        <v>1001.170564704835</v>
       </c>
       <c r="S5">
-        <v>0.03360749810028964</v>
+        <v>0.03268245628997264</v>
       </c>
       <c r="T5">
-        <v>0.03360749810028964</v>
+        <v>0.03631481345233215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H6">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I6">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J6">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>238.2892715324753</v>
+        <v>255.069393364534</v>
       </c>
       <c r="R6">
-        <v>238.2892715324753</v>
+        <v>1530.416360187204</v>
       </c>
       <c r="S6">
-        <v>0.04937871015668202</v>
+        <v>0.04995928522131846</v>
       </c>
       <c r="T6">
-        <v>0.04937871015668202</v>
+        <v>0.05551180446558635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.05289485611806</v>
+        <v>2.0953135</v>
       </c>
       <c r="H7">
-        <v>2.05289485611806</v>
+        <v>4.190627</v>
       </c>
       <c r="I7">
-        <v>0.2954879945117517</v>
+        <v>0.2910351729706789</v>
       </c>
       <c r="J7">
-        <v>0.2954879945117517</v>
+        <v>0.2770980890233866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>286.5098828448002</v>
+        <v>293.1516753684207</v>
       </c>
       <c r="R7">
-        <v>286.5098828448002</v>
+        <v>1172.606701473683</v>
       </c>
       <c r="S7">
-        <v>0.05937106765669148</v>
+        <v>0.05741828907675871</v>
       </c>
       <c r="T7">
-        <v>0.05937106765669148</v>
+        <v>0.04253320574753977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H8">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I8">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J8">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>89.80753274661451</v>
+        <v>8.507108830325333</v>
       </c>
       <c r="R8">
-        <v>89.80753274661451</v>
+        <v>51.042652981952</v>
       </c>
       <c r="S8">
-        <v>0.01861007044447421</v>
+        <v>0.001666248822945275</v>
       </c>
       <c r="T8">
-        <v>0.01861007044447421</v>
+        <v>0.001851437194119057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H9">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I9">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J9">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>60.77565809865872</v>
+        <v>6.139007290538665</v>
       </c>
       <c r="R9">
-        <v>60.77565809865872</v>
+        <v>55.251065614848</v>
       </c>
       <c r="S9">
-        <v>0.01259403575551356</v>
+        <v>0.001202419514776717</v>
       </c>
       <c r="T9">
-        <v>0.01259403575551356</v>
+        <v>0.002004086228241542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H10">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I10">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J10">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>45.8508786509864</v>
+        <v>4.369513211968</v>
       </c>
       <c r="R10">
-        <v>45.8508786509864</v>
+        <v>39.325618907712</v>
       </c>
       <c r="S10">
-        <v>0.009501297447324225</v>
+        <v>0.000855836735076431</v>
       </c>
       <c r="T10">
-        <v>0.009501297447324225</v>
+        <v>0.001426432782661863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H11">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I11">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J11">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>43.11125604232694</v>
+        <v>4.116422509617777</v>
       </c>
       <c r="R11">
-        <v>43.11125604232694</v>
+        <v>37.04780258656</v>
       </c>
       <c r="S11">
-        <v>0.00893358816749938</v>
+        <v>0.0008062650070898122</v>
       </c>
       <c r="T11">
-        <v>0.00893358816749938</v>
+        <v>0.001343811021997436</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H12">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I12">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J12">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>63.34235920365109</v>
+        <v>6.292474605482665</v>
       </c>
       <c r="R12">
-        <v>63.34235920365109</v>
+        <v>56.63227144934399</v>
       </c>
       <c r="S12">
-        <v>0.01312591194577243</v>
+        <v>0.001232478461709953</v>
       </c>
       <c r="T12">
-        <v>0.01312591194577243</v>
+        <v>0.002054185815651788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5457031386569829</v>
+        <v>0.05169066666666666</v>
       </c>
       <c r="H13">
-        <v>0.5457031386569829</v>
+        <v>0.155072</v>
       </c>
       <c r="I13">
-        <v>0.07854699696867815</v>
+        <v>0.007179738074661876</v>
       </c>
       <c r="J13">
-        <v>0.07854699696867815</v>
+        <v>0.01025387247804078</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>76.16042383208176</v>
+        <v>7.231951464181333</v>
       </c>
       <c r="R13">
-        <v>76.16042383208176</v>
+        <v>43.391708785088</v>
       </c>
       <c r="S13">
-        <v>0.01578209320809433</v>
+        <v>0.001416489533063688</v>
       </c>
       <c r="T13">
-        <v>0.01578209320809433</v>
+        <v>0.001573919435369095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H14">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I14">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J14">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>715.7036573056167</v>
+        <v>110.6834260248158</v>
       </c>
       <c r="R14">
-        <v>715.7036573056167</v>
+        <v>664.100556148895</v>
       </c>
       <c r="S14">
-        <v>0.1483093352247499</v>
+        <v>0.02167906065524577</v>
       </c>
       <c r="T14">
-        <v>0.1483093352247499</v>
+        <v>0.0240884906731624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H15">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I15">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J15">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>484.3397813754715</v>
+        <v>79.87277145038665</v>
       </c>
       <c r="R15">
-        <v>484.3397813754715</v>
+        <v>718.85494305348</v>
       </c>
       <c r="S15">
-        <v>0.1003657173824158</v>
+        <v>0.01564431748423914</v>
       </c>
       <c r="T15">
-        <v>0.1003657173824158</v>
+        <v>0.02607456119524475</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H16">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I16">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J16">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>365.399655658885</v>
+        <v>56.850417927805</v>
       </c>
       <c r="R16">
-        <v>365.399655658885</v>
+        <v>511.653761350245</v>
       </c>
       <c r="S16">
-        <v>0.0757187412261341</v>
+        <v>0.01113503351673114</v>
       </c>
       <c r="T16">
-        <v>0.0757187412261341</v>
+        <v>0.01855888651809909</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H17">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I17">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J17">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>343.5667663600901</v>
+        <v>53.55753116805278</v>
       </c>
       <c r="R17">
-        <v>343.5667663600901</v>
+        <v>482.017780512475</v>
       </c>
       <c r="S17">
-        <v>0.07119449258650876</v>
+        <v>0.01049007072185417</v>
       </c>
       <c r="T17">
-        <v>0.07119449258650876</v>
+        <v>0.0174839197206905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.34887497958438</v>
+        <v>0.6725316666666666</v>
       </c>
       <c r="H18">
-        <v>4.34887497958438</v>
+        <v>2.017595</v>
       </c>
       <c r="I18">
-        <v>0.6259650085195703</v>
+        <v>0.09341340564864985</v>
       </c>
       <c r="J18">
-        <v>0.6259650085195703</v>
+        <v>0.1334100407703047</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>504.7946063981827</v>
+        <v>81.86948837732665</v>
       </c>
       <c r="R18">
-        <v>504.7946063981827</v>
+        <v>736.8253953959399</v>
       </c>
       <c r="S18">
-        <v>0.104604401187215</v>
+        <v>0.01603540537268942</v>
       </c>
       <c r="T18">
-        <v>0.104604401187215</v>
+        <v>0.02672639180980428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6725316666666666</v>
+      </c>
+      <c r="H19">
+        <v>2.017595</v>
+      </c>
+      <c r="I19">
+        <v>0.09341340564864985</v>
+      </c>
+      <c r="J19">
+        <v>0.1334100407703047</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>94.09273830462583</v>
+      </c>
+      <c r="R19">
+        <v>564.556429827755</v>
+      </c>
+      <c r="S19">
+        <v>0.01842951789789022</v>
+      </c>
+      <c r="T19">
+        <v>0.02047779085330369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.379984</v>
+      </c>
+      <c r="H20">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J20">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>164.5772705</v>
+      </c>
+      <c r="N20">
+        <v>329.154541</v>
+      </c>
+      <c r="O20">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P20">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q20">
+        <v>720.8458115536721</v>
+      </c>
+      <c r="R20">
+        <v>2883.383246214688</v>
+      </c>
+      <c r="S20">
+        <v>0.1411887997417807</v>
+      </c>
+      <c r="T20">
+        <v>0.1045870987315101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.379984</v>
+      </c>
+      <c r="H21">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J21">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>118.764328</v>
+      </c>
+      <c r="N21">
+        <v>356.292984</v>
+      </c>
+      <c r="O21">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P21">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q21">
+        <v>520.185856410752</v>
+      </c>
+      <c r="R21">
+        <v>3121.115138464512</v>
+      </c>
+      <c r="S21">
+        <v>0.1018864444131072</v>
+      </c>
+      <c r="T21">
+        <v>0.1132101941590784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.379984</v>
+      </c>
+      <c r="H22">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J22">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N22">
+        <v>253.595871</v>
+      </c>
+      <c r="O22">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P22">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q22">
+        <v>370.2486191486881</v>
+      </c>
+      <c r="R22">
+        <v>2221.491714892128</v>
+      </c>
+      <c r="S22">
+        <v>0.07251891778490652</v>
+      </c>
+      <c r="T22">
+        <v>0.08057873458953826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.379984</v>
+      </c>
+      <c r="H23">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J23">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N23">
+        <v>238.907105</v>
+      </c>
+      <c r="O23">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P23">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q23">
+        <v>348.8030991287733</v>
+      </c>
+      <c r="R23">
+        <v>2092.81859477264</v>
+      </c>
+      <c r="S23">
+        <v>0.06831848104390086</v>
+      </c>
+      <c r="T23">
+        <v>0.0759114575857978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.34887497958438</v>
-      </c>
-      <c r="H19">
-        <v>4.34887497958438</v>
-      </c>
-      <c r="I19">
-        <v>0.6259650085195703</v>
-      </c>
-      <c r="J19">
-        <v>0.6259650085195703</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q19">
-        <v>606.9456782913522</v>
-      </c>
-      <c r="R19">
-        <v>606.9456782913522</v>
-      </c>
-      <c r="S19">
-        <v>0.1257723209125467</v>
-      </c>
-      <c r="T19">
-        <v>0.1257723209125467</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.379984</v>
+      </c>
+      <c r="H24">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J24">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>121.733284</v>
+      </c>
+      <c r="N24">
+        <v>365.199852</v>
+      </c>
+      <c r="O24">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P24">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q24">
+        <v>533.189836187456</v>
+      </c>
+      <c r="R24">
+        <v>3199.139017124736</v>
+      </c>
+      <c r="S24">
+        <v>0.1044334749529421</v>
+      </c>
+      <c r="T24">
+        <v>0.1160403039308422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.379984</v>
+      </c>
+      <c r="H25">
+        <v>8.759968000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.6083716833060094</v>
+      </c>
+      <c r="J25">
+        <v>0.5792379977282679</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>612.795959977768</v>
+      </c>
+      <c r="R25">
+        <v>2451.183839911072</v>
+      </c>
+      <c r="S25">
+        <v>0.1200255653693721</v>
+      </c>
+      <c r="T25">
+        <v>0.08891020873150116</v>
       </c>
     </row>
   </sheetData>
